--- a/BalanceSheet/MKL_bal.xlsx
+++ b/BalanceSheet/MKL_bal.xlsx
@@ -4191,10 +4191,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>-932955000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>-1294649000.0</v>
@@ -4320,10 +4318,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>3564949000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>3922000000.0</v>
